--- a/stats/hypothesis_data.xlsx
+++ b/stats/hypothesis_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eliana/Documents/_csprojects/county-elections/stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800BDC99-EB6A-294B-A385-BD04A71397CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FBF6F3-9D0D-2A40-8A79-CBA80C2E868A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="620" windowWidth="25440" windowHeight="14100" xr2:uid="{93E80F25-D18D-2E40-BD6F-C7FBD6FFCD95}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14100" xr2:uid="{93E80F25-D18D-2E40-BD6F-C7FBD6FFCD95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>CO</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>counties without big cities and big margins</t>
+  </si>
+  <si>
+    <t>counties with big cities AND margin &lt;=1%</t>
+  </si>
+  <si>
+    <t>counties with big cities AND margin &gt;1%</t>
+  </si>
+  <si>
+    <t>total COUNTIES with big cities</t>
+  </si>
+  <si>
+    <t>counties with not-big cities AND &gt;1% margin</t>
+  </si>
+  <si>
+    <t>counties with not-big cities AND &lt;=1% margin</t>
   </si>
 </sst>
 </file>
@@ -466,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2505CED-5513-934D-B838-1C671CABD011}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,21 +755,130 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
       <c r="L7" s="2">
-        <f>L6-L2</f>
-        <v>70</v>
+        <f>SUM(A7:K7)</f>
+        <v>67</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L8" s="2">
-        <f>L5-L7</f>
-        <v>777</v>
+        <f>L7-L2</f>
+        <v>54</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L9" s="2">
+        <f>L5-L8</f>
+        <v>793</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <f>SUM(A10:K10)</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L11" s="2">
+        <f>67-3</f>
+        <v>64</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L12" s="2">
+        <v>909</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L13" s="2">
+        <v>14</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/stats/hypothesis_data.xlsx
+++ b/stats/hypothesis_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eliana/Documents/_csprojects/county-elections/stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FBF6F3-9D0D-2A40-8A79-CBA80C2E868A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAA6145-9505-0A47-81A6-C438AF4C5AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14100" xr2:uid="{93E80F25-D18D-2E40-BD6F-C7FBD6FFCD95}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,7 +867,8 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L12" s="2">
-        <v>909</v>
+        <f>L3+L5-L11</f>
+        <v>926</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>23</v>

--- a/stats/hypothesis_data.xlsx
+++ b/stats/hypothesis_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eliana/Documents/_csprojects/county-elections/stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAA6145-9505-0A47-81A6-C438AF4C5AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235144B3-1A6C-954B-8AA3-60311E9FE752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14100" xr2:uid="{93E80F25-D18D-2E40-BD6F-C7FBD6FFCD95}"/>
+    <workbookView xWindow="15600" yWindow="460" windowWidth="10000" windowHeight="14100" xr2:uid="{93E80F25-D18D-2E40-BD6F-C7FBD6FFCD95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2505CED-5513-934D-B838-1C671CABD011}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="2">
-        <f>SUM(A2:K2)</f>
+        <f t="shared" ref="L2:L7" si="0">SUM(A2:K2)</f>
         <v>13</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -610,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="L3" s="2">
-        <f>SUM(A3:K3)</f>
+        <f t="shared" si="0"/>
         <v>143</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -623,47 +623,47 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:K4" si="0">B3-B2</f>
+        <f t="shared" ref="B4:K4" si="1">B3-B2</f>
         <v>3</v>
       </c>
       <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L4" s="2">
-        <f>SUM(A4:K4)</f>
         <v>130</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -705,7 +705,7 @@
         <v>71</v>
       </c>
       <c r="L5" s="2">
-        <f>SUM(A5:K5)</f>
+        <f t="shared" si="0"/>
         <v>847</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <f>SUM(A6:K6)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -755,42 +755,42 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>14</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>3</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="4">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4">
         <v>6</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <v>4</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="4">
         <v>9</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="4">
         <v>4</v>
       </c>
       <c r="L7" s="2">
-        <f>SUM(A7:K7)</f>
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>22</v>
@@ -799,7 +799,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L8" s="2">
         <f>L7-L2</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>18</v>
@@ -808,7 +808,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L9" s="2">
         <f>L5-L8</f>
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>19</v>
